--- a/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,139 +40,172 @@
     <t>name</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>return</t>
   </si>
   <si>
     <t>poorly</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>return</t>
+    <t>however</t>
   </si>
   <si>
     <t>paid</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>disappointment</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>however</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>okay</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>light</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>tiny</t>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>part</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>piece</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>nothing</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>way</t>
+    <t>hard</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>would</t>
@@ -181,18 +214,15 @@
     <t>made</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>price</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -211,9 +241,6 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -223,9 +250,6 @@
     <t>loves</t>
   </si>
   <si>
-    <t>elf</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -235,9 +259,6 @@
     <t>great</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -245,6 +266,9 @@
   </si>
   <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>positive</t>
@@ -605,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9527027027027027</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>0.6666666666666666</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -716,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -724,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9594594594594594</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K4">
-        <v>0.6153846153846154</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -766,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -774,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9436619718309859</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K5">
         <v>0.4528301886792453</v>
@@ -824,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9428571428571428</v>
+        <v>0.9301075268817204</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K6">
-        <v>0.4155844155844156</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -866,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -874,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9320388349514563</v>
+        <v>0.9271844660194175</v>
       </c>
       <c r="C7">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K7">
-        <v>0.40625</v>
+        <v>0.421875</v>
       </c>
       <c r="L7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -916,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9318181818181818</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K8">
-        <v>0.3617021276595745</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -966,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8924731182795699</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C9">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K9">
-        <v>0.3333333333333333</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8913043478260869</v>
+        <v>0.8736842105263158</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D10">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K10">
-        <v>0.2857142857142857</v>
+        <v>0.2614107883817428</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>40</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8736842105263158</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="C11">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K11">
-        <v>0.2717842323651452</v>
+        <v>0.2338593974175036</v>
       </c>
       <c r="L11">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="M11">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>351</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8709677419354839</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C12">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K12">
-        <v>0.265625</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>47</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7894736842105263</v>
+        <v>0.78125</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,31 +1216,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K13">
-        <v>0.2352941176470588</v>
+        <v>0.1410992616899098</v>
       </c>
       <c r="L13">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="M13">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>533</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1224,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7890625</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C14">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K14">
-        <v>0.2201834862385321</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L14">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1266,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>255</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1274,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C15">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1292,31 +1316,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K15">
-        <v>0.1616078753076292</v>
+        <v>0.06878650227125244</v>
       </c>
       <c r="L15">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="M15">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1022</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1324,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6666666666666666</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1342,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K16">
-        <v>0.1506024096385542</v>
+        <v>0.06047326906222612</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1366,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>141</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1392,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K17">
-        <v>0.09192200557103064</v>
+        <v>0.05902777777777778</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1416,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>326</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1424,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,31 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18">
-        <v>0.06878650227125244</v>
-      </c>
-      <c r="L18">
-        <v>106</v>
-      </c>
-      <c r="M18">
-        <v>106</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1435</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1474,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6296296296296297</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1492,31 +1492,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19">
-        <v>0.04645048203330412</v>
-      </c>
-      <c r="L19">
-        <v>53</v>
-      </c>
-      <c r="M19">
-        <v>53</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>1088</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1524,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6065573770491803</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1542,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1550,13 +1526,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5636363636363636</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1568,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1576,13 +1552,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5555555555555556</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1594,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1602,13 +1578,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5555555555555556</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1620,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1628,13 +1604,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1646,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1654,13 +1630,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5142857142857142</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1672,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1680,13 +1656,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1698,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1706,13 +1682,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1724,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1732,13 +1708,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4976303317535545</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C28">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1750,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1758,13 +1734,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4523809523809524</v>
+        <v>0.5118483412322274</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1776,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1784,13 +1760,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4285714285714285</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1802,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1810,13 +1786,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4057971014492754</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1828,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1836,13 +1812,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3917525773195876</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C32">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1854,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1862,13 +1838,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3888888888888889</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1880,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1888,13 +1864,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3762376237623762</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C34">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1906,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1914,13 +1890,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3565217391304348</v>
+        <v>0.422680412371134</v>
       </c>
       <c r="C35">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1932,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>222</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1940,13 +1916,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3536585365853658</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1958,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1966,13 +1942,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2972972972972973</v>
+        <v>0.3712871287128713</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1984,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>52</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1992,13 +1968,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2848101265822785</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="C38">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2010,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>226</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2018,13 +1994,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2592592592592592</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2036,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2044,13 +2020,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2521008403361344</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2062,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2070,13 +2046,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2289156626506024</v>
+        <v>0.3420289855072464</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2088,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>64</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2096,13 +2072,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1648351648351648</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2114,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2122,13 +2098,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1640625</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2140,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2148,13 +2124,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1485507246376812</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C44">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2166,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>235</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2174,7 +2150,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1403508771929824</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="C45">
         <v>24</v>
@@ -2192,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>147</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2200,13 +2176,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1360759493670886</v>
+        <v>0.2784810126582278</v>
       </c>
       <c r="C46">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D46">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2218,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>273</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2226,13 +2202,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.12</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2244,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>176</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2252,25 +2228,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.09212481426448738</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C48">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>611</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2278,13 +2254,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.09148264984227129</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2296,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>288</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2304,13 +2280,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08149779735682819</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="C50">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2322,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>417</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2330,13 +2306,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.07653061224489796</v>
+        <v>0.1653543307086614</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2348,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>181</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2356,13 +2332,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.04657534246575343</v>
+        <v>0.1485507246376812</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2374,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>348</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2382,13 +2358,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.03969465648854962</v>
+        <v>0.1484375</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2400,7 +2376,267 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>629</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.145</v>
+      </c>
+      <c r="C54">
+        <v>29</v>
+      </c>
+      <c r="D54">
+        <v>29</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.1329113924050633</v>
+      </c>
+      <c r="C55">
+        <v>42</v>
+      </c>
+      <c r="D55">
+        <v>42</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.09693877551020408</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>19</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.09289617486338798</v>
+      </c>
+      <c r="C57">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.0881057268722467</v>
+      </c>
+      <c r="C58">
+        <v>40</v>
+      </c>
+      <c r="D58">
+        <v>40</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.08320950965824665</v>
+      </c>
+      <c r="C59">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>0.02</v>
+      </c>
+      <c r="F59">
+        <v>0.98</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.07278481012658228</v>
+      </c>
+      <c r="C60">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>0.04</v>
+      </c>
+      <c r="F60">
+        <v>0.96</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.04885057471264368</v>
+      </c>
+      <c r="C61">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>17</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.03816793893129771</v>
+      </c>
+      <c r="C62">
+        <v>25</v>
+      </c>
+      <c r="D62">
+        <v>25</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.03464203233256351</v>
+      </c>
+      <c r="C63">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <v>0.06</v>
+      </c>
+      <c r="F63">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
